--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -733,14 +733,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="7.6640625" customWidth="1" style="49" min="1" max="1"/>
     <col width="44.6640625" customWidth="1" style="49" min="2" max="2"/>
     <col width="7.6640625" customWidth="1" style="49" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.75" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SYDEC Start Year Distributed Electricity Capacity</t>
@@ -751,10 +751,10 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.75" customHeight="1" s="49">
       <c r="B2" s="2" t="n"/>
     </row>
-    <row r="3">
+    <row r="3" ht="14.75" customHeight="1" s="49">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Sources:</t>
@@ -766,100 +766,100 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="14.75" customHeight="1" s="49">
       <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Energy Information Administration</t>
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="14.75" customHeight="1" s="49">
       <c r="B5" s="5" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="14.75" customHeight="1" s="49">
       <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Annual Energy Outlook 2018</t>
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="14.75" customHeight="1" s="49">
       <c r="B7" s="4" t="inlineStr">
         <is>
           <t>https://www.eia.gov/outlooks/aeo/tables_ref.php</t>
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="14.75" customHeight="1" s="49">
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Table 22 and Table 23</t>
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.75" customHeight="1" s="49">
       <c r="B9" s="2" t="n"/>
     </row>
-    <row r="10">
+    <row r="10" ht="14.75" customHeight="1" s="49">
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Urban vs. Rural Residential Households</t>
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.75" customHeight="1" s="49">
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Energy Information Administration</t>
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.75" customHeight="1" s="49">
       <c r="B12" s="5" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="14.75" customHeight="1" s="49">
       <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Residential Energy Consumption Survey (RECS)</t>
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="14.75" customHeight="1" s="49">
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>https://www.eia.gov/consumption/residential/data/2015/hc/hc2.1.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.75" customHeight="1" s="49">
       <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Table HC2.1</t>
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.75" customHeight="1" s="49">
       <c r="B16" s="2" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" ht="14.75" customHeight="1" s="49">
       <c r="B17" s="6" t="inlineStr">
         <is>
           <t>State Downscaling</t>
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.75" customHeight="1" s="49">
       <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Energy Information Administration</t>
         </is>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="14.75" customHeight="1" s="49">
       <c r="B19" s="8" t="n">
         <v>2018</v>
       </c>
@@ -3871,7 +3871,7 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col hidden="1" width="18.1640625" customWidth="1" style="49" min="1" max="1"/>
     <col width="40" customWidth="1" style="49" min="2" max="2"/>
@@ -4064,15 +4064,15 @@
       <c r="F6" s="15" t="n"/>
       <c r="G6" s="15" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" ht="14.75" customHeight="1" s="49">
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="2" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" ht="14.75" customHeight="1" s="49">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="14.75" customHeight="1" s="49">
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="2" t="n"/>
     </row>
@@ -16024,7 +16024,7 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col hidden="1" width="18.1640625" customWidth="1" style="49" min="1" max="1"/>
     <col width="40" customWidth="1" style="49" min="2" max="2"/>
@@ -16217,15 +16217,15 @@
       <c r="F6" s="15" t="n"/>
       <c r="G6" s="15" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" ht="14.75" customHeight="1" s="49">
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="2" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" ht="14.75" customHeight="1" s="49">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="14.75" customHeight="1" s="49">
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="2" t="n"/>
     </row>
@@ -26966,7 +26966,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="25.1640625" customWidth="1" style="49" min="1" max="1"/>
     <col width="10.1640625" customWidth="1" style="49" min="2" max="7"/>
@@ -27118,7 +27118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.5" customHeight="1" s="49">
       <c r="A9" s="39" t="inlineStr">
         <is>
           <t>New England</t>
@@ -27145,7 +27145,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="14.5" customHeight="1" s="49">
       <c r="A10" s="39" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
@@ -27170,7 +27170,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.5" customHeight="1" s="49">
       <c r="A11" s="37" t="inlineStr">
         <is>
           <t>Midwest</t>
@@ -27195,7 +27195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.5" customHeight="1" s="49">
       <c r="A12" s="39" t="inlineStr">
         <is>
           <t>East North Central</t>
@@ -27245,7 +27245,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="14.5" customHeight="1" s="49">
       <c r="A14" s="37" t="inlineStr">
         <is>
           <t>South</t>
@@ -27270,7 +27270,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.5" customHeight="1" s="49">
       <c r="A15" s="39" t="inlineStr">
         <is>
           <t>South Atlantic</t>
@@ -27295,7 +27295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.5" customHeight="1" s="49">
       <c r="A16" s="39" t="inlineStr">
         <is>
           <t>East South Central</t>
@@ -27345,7 +27345,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.5" customHeight="1" s="49">
       <c r="A18" s="37" t="inlineStr">
         <is>
           <t>West</t>
@@ -27370,7 +27370,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="14.5" customHeight="1" s="49">
       <c r="A19" s="39" t="inlineStr">
         <is>
           <t>Mountain</t>
@@ -27395,7 +27395,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="14.5" customHeight="1" s="49">
       <c r="A20" s="39" t="inlineStr">
         <is>
           <t>Mountain North</t>
@@ -39991,13 +39991,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="20.5" customWidth="1" style="49" min="1" max="4"/>
     <col width="7.6640625" customWidth="1" style="49" min="5" max="26"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.75" customHeight="1" s="49">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>MW</t>
@@ -40019,7 +40019,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.75" customHeight="1" s="49">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>hard coal</t>
@@ -40035,7 +40035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="14.75" customHeight="1" s="49">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>natural gas nonpeaker</t>
@@ -40051,7 +40051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="14.75" customHeight="1" s="49">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>nuclear</t>
@@ -40067,7 +40067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="14.75" customHeight="1" s="49">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>hydro</t>
@@ -40083,7 +40083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="14.75" customHeight="1" s="49">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>onshore wind</t>
@@ -40099,7 +40099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="14.75" customHeight="1" s="49">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>solar PV</t>
@@ -40115,7 +40115,7 @@
         <v>0.63422</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="14.75" customHeight="1" s="49">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>solar thermal</t>
@@ -40131,7 +40131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.75" customHeight="1" s="49">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>biomass</t>
@@ -40147,7 +40147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="14.75" customHeight="1" s="49">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>geothermal</t>
@@ -40163,7 +40163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.75" customHeight="1" s="49">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>petroleum</t>
@@ -40179,7 +40179,7 @@
         <v>0.00223</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.75" customHeight="1" s="49">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>natural gas peaker</t>
@@ -40195,7 +40195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="14.75" customHeight="1" s="49">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>lignite</t>
@@ -40211,7 +40211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="14.75" customHeight="1" s="49">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t>offshore wind</t>
@@ -40227,7 +40227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.75" customHeight="1" s="49">
       <c r="A15" s="4" t="inlineStr">
         <is>
           <t>crude oil</t>
@@ -40243,7 +40243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.75" customHeight="1" s="49">
       <c r="A16" s="4" t="inlineStr">
         <is>
           <t>heavy or residual fuel oil</t>
@@ -40259,7 +40259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="14.75" customHeight="1" s="49">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>municipal solid waste</t>
@@ -40275,19 +40275,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.75" customHeight="1" s="49">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
     </row>
-    <row r="19">
+    <row r="19" ht="14.75" customHeight="1" s="49">
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="n"/>
       <c r="D19" s="2" t="n"/>
     </row>
-    <row r="20">
+    <row r="20" ht="14.75" customHeight="1" s="49">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39985,7 +39985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40050,6 +40050,9 @@
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="14.75" customHeight="1" s="49">
       <c r="A4" s="4" t="inlineStr">
@@ -40093,9 +40096,12 @@
         <v>0.00541</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.13493</v>
+        <v>0.008019999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>6.12191</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40109,10 +40115,13 @@
         <v>0.00036</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.27462</v>
+        <v>0.00043</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.63422</v>
+        <v>0.32818</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.75791</v>
       </c>
     </row>
     <row r="8" ht="14.75" customHeight="1" s="49">
@@ -40177,6 +40186,9 @@
       </c>
       <c r="D11" s="4" t="n">
         <v>0.00223</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00157</v>
       </c>
     </row>
     <row r="12" ht="14.75" customHeight="1" s="49">
